--- a/Documents/开发和测试过程数据统计对照表.xlsx
+++ b/Documents/开发和测试过程数据统计对照表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11706\OneDrive\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11706\OneDrive\SoftwareEngineering\Team107\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1196" documentId="8_{53DA5F02-BBD9-48AF-AB82-FCDDC97265F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1F570427-BE4A-4322-9E2C-CA940275E52C}"/>
+  <xr:revisionPtr revIDLastSave="1239" documentId="8_{53DA5F02-BBD9-48AF-AB82-FCDDC97265F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{4F3FD59C-BF87-4C7F-8562-6BA436FF1BBB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="对照表" sheetId="1" r:id="rId1"/>
@@ -2418,6 +2418,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,24 +2459,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2764,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P208"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -2788,28 +2788,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="27" t="s">
@@ -2881,27 +2881,27 @@
       <c r="H5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="28">
         <f>(I13+I21+I26)/3</f>
-        <v>0.26345766050847724</v>
-      </c>
-      <c r="J5" s="36">
+        <v>0.25892365257543187</v>
+      </c>
+      <c r="J5" s="28">
         <f t="shared" ref="J5:M5" si="0">(J13+J21+J26)/3</f>
-        <v>0.20181294305613726</v>
-      </c>
-      <c r="K5" s="36">
+        <v>0.19361396385638086</v>
+      </c>
+      <c r="K5" s="28">
         <f t="shared" si="0"/>
-        <v>0.26177152651744301</v>
-      </c>
-      <c r="L5" s="36">
+        <v>0.2323143061858132</v>
+      </c>
+      <c r="L5" s="28">
         <f t="shared" si="0"/>
-        <v>0.13549180200722852</v>
-      </c>
-      <c r="M5" s="36">
+        <v>0.17383170129766737</v>
+      </c>
+      <c r="M5" s="28">
         <f t="shared" si="0"/>
-        <v>0.137466067910714</v>
-      </c>
-      <c r="N5" s="37"/>
+        <v>0.14131637608470662</v>
+      </c>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="27" t="s">
@@ -2951,13 +2951,13 @@
       <c r="H7" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
@@ -2967,13 +2967,13 @@
       <c r="H8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -3007,7 +3007,7 @@
         <v>413</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="M10" s="8"/>
@@ -3026,7 +3026,7 @@
         <v>238</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="39"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="27" t="s">
@@ -3069,7 +3069,7 @@
       <c r="D12" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="27" t="s">
@@ -3081,19 +3081,19 @@
       </c>
       <c r="J12" s="2">
         <f>任务统计表!N11</f>
-        <v>79.599999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="K12" s="2">
         <f>任务统计表!O11</f>
-        <v>98.8</v>
+        <v>84.5</v>
       </c>
       <c r="L12" s="2">
         <f>任务统计表!P11</f>
-        <v>53.7</v>
+        <v>86</v>
       </c>
       <c r="M12" s="2">
         <f>任务统计表!Q11</f>
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -3110,7 +3110,7 @@
         <v>232</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="39"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="21" t="s">
@@ -3118,23 +3118,23 @@
       </c>
       <c r="I13" s="21">
         <f>I12/SUM(I12:M12)</f>
-        <v>0.25835543766578251</v>
+        <v>0.24658227848101266</v>
       </c>
       <c r="J13" s="21">
         <f>J12/SUM(I12:M12)</f>
-        <v>0.21114058355437665</v>
+        <v>0.18886075949367087</v>
       </c>
       <c r="K13" s="21">
         <f>K12/SUM(I12:M12)</f>
-        <v>0.26206896551724135</v>
+        <v>0.21392405063291139</v>
       </c>
       <c r="L13" s="21">
         <f>L12/SUM(I12:M12)</f>
-        <v>0.14244031830238726</v>
+        <v>0.21772151898734177</v>
       </c>
       <c r="M13" s="21">
         <f>M12/SUM(I12:M12)</f>
-        <v>0.12599469496021221</v>
+        <v>0.13291139240506328</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -3153,7 +3153,7 @@
       <c r="D14" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="N14" s="8"/>
@@ -3171,7 +3171,7 @@
         <v>238</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="2" t="s">
@@ -3214,7 +3214,7 @@
       <c r="D16" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="2" t="s">
@@ -3252,7 +3252,7 @@
       <c r="D17" s="27">
         <v>1.25</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="2" t="s">
@@ -3290,13 +3290,13 @@
       <c r="D18" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="31"/>
       <c r="G18" s="8"/>
       <c r="H18" s="2" t="s">
         <v>348</v>
       </c>
       <c r="I18" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18" s="2">
         <v>2</v>
@@ -3305,7 +3305,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2">
         <v>2</v>
@@ -3327,7 +3327,7 @@
       <c r="D19" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="31"/>
       <c r="G19" s="8"/>
       <c r="H19" s="2" t="s">
         <v>350</v>
@@ -3339,10 +3339,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
         <v>2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>4</v>
@@ -3364,14 +3364,14 @@
       <c r="D20" s="27" t="s">
         <v>528</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="31"/>
       <c r="G20" s="8"/>
       <c r="H20" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I20" s="2">
         <f>SUM(I16:I19)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="2">
         <f>SUM(J16:J19)</f>
@@ -3379,11 +3379,11 @@
       </c>
       <c r="K20" s="2">
         <f>SUM(K16:K19)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L20" s="2">
         <f>SUM(L16:L19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M20" s="2">
         <f>SUM(M16:M19)</f>
@@ -3401,14 +3401,14 @@
       <c r="D21" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="E21" s="39"/>
+      <c r="E21" s="31"/>
       <c r="G21" s="8"/>
       <c r="H21" s="2" t="s">
         <v>506</v>
       </c>
       <c r="I21" s="21">
         <f>I20/SUM(I20:M20)</f>
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J21" s="21">
         <f>J20/SUM(I20:M20)</f>
@@ -3416,11 +3416,11 @@
       </c>
       <c r="K21" s="21">
         <f>K20/SUM(I20:M20)</f>
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="L21" s="21">
         <f>L20/SUM(I20:M20)</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="M21" s="21">
         <f>M20/SUM(I20:M20)</f>
@@ -3441,7 +3441,7 @@
         <v>8350337</v>
       </c>
       <c r="D22" s="27"/>
-      <c r="E22" s="39"/>
+      <c r="E22" s="31"/>
       <c r="G22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -3460,7 +3460,7 @@
       <c r="D23" s="27" t="s">
         <v>536</v>
       </c>
-      <c r="E23" s="39"/>
+      <c r="E23" s="31"/>
       <c r="G23" s="8"/>
       <c r="H23" s="2" t="s">
         <v>352</v>
@@ -3502,7 +3502,7 @@
       <c r="D24" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="31"/>
       <c r="G24" s="8"/>
       <c r="H24" s="2" t="s">
         <v>479</v>
@@ -3539,7 +3539,7 @@
       <c r="D25" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="31"/>
       <c r="G25" s="8"/>
       <c r="H25" s="2" t="s">
         <v>497</v>
@@ -3550,15 +3550,15 @@
       </c>
       <c r="J25" s="2">
         <f>commit统计表!J12</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K25" s="2">
         <f>commit统计表!K12</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L25" s="2">
         <f>commit统计表!L12</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M25" s="2">
         <f>commit统计表!M12</f>
@@ -3576,30 +3576,30 @@
       <c r="D26" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="31"/>
       <c r="G26" s="8"/>
       <c r="H26" s="2" t="s">
         <v>506</v>
       </c>
       <c r="I26" s="21">
         <f>I25/SUM(I25:M25)</f>
-        <v>0.30701754385964913</v>
+        <v>0.330188679245283</v>
       </c>
       <c r="J26" s="21">
         <f>J25/SUM(I25:M25)</f>
-        <v>0.21929824561403508</v>
+        <v>0.21698113207547171</v>
       </c>
       <c r="K26" s="21">
         <f>K25/SUM(I25:M25)</f>
-        <v>0.2982456140350877</v>
+        <v>0.28301886792452829</v>
       </c>
       <c r="L26" s="21">
         <f>L25/SUM(I25:M25)</f>
-        <v>0.11403508771929824</v>
+        <v>0.10377358490566038</v>
       </c>
       <c r="M26" s="21">
         <f>M25/SUM(I25:M25)</f>
-        <v>6.1403508771929821E-2</v>
+        <v>6.6037735849056603E-2</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -3613,7 +3613,7 @@
       <c r="D27" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="31"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -3633,7 +3633,7 @@
       <c r="D28" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="E28" s="39"/>
+      <c r="E28" s="31"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -3653,7 +3653,7 @@
       <c r="D29" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="E29" s="39"/>
+      <c r="E29" s="31"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -3678,7 +3678,7 @@
       <c r="D30" s="27" t="s">
         <v>532</v>
       </c>
-      <c r="E30" s="39"/>
+      <c r="E30" s="31"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -3697,13 +3697,13 @@
       <c r="B31" s="27">
         <v>1000036</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="30" t="s">
         <v>520</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>531</v>
       </c>
-      <c r="E31" s="39"/>
+      <c r="E31" s="31"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -3728,7 +3728,7 @@
       <c r="D32" s="27">
         <v>1.28</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="31"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -3753,7 +3753,7 @@
       <c r="D33" s="27">
         <v>1.28</v>
       </c>
-      <c r="E33" s="39"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -3779,7 +3779,7 @@
       <c r="D34" s="27">
         <v>1.28</v>
       </c>
-      <c r="E34" s="39"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -3805,7 +3805,7 @@
       <c r="D35" s="27">
         <v>1.28</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -3831,7 +3831,7 @@
       <c r="D36" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E36" s="39"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -3857,7 +3857,7 @@
       <c r="D37" s="2">
         <v>2.1</v>
       </c>
-      <c r="E37" s="39"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -3883,7 +3883,7 @@
       <c r="D38" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E38" s="39"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -3907,7 +3907,7 @@
         <v>241</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="39"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -3933,7 +3933,7 @@
       <c r="D40" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E40" s="39"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -3959,7 +3959,7 @@
       <c r="D41" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E41" s="39"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -3985,7 +3985,7 @@
       <c r="D42" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="E42" s="39"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -4009,7 +4009,7 @@
         <v>112</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="39"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4033,7 +4033,7 @@
         <v>112</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="39"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -4059,7 +4059,7 @@
       <c r="D45" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E45" s="39"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -4085,7 +4085,7 @@
       <c r="D46" s="2">
         <v>2.31</v>
       </c>
-      <c r="E46" s="39"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -4111,7 +4111,7 @@
       <c r="D47" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E47" s="39"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -7035,7 +7035,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L25"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -7047,19 +7047,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -7375,19 +7375,19 @@
       </c>
       <c r="N11" s="14">
         <f t="array" ref="N11">SUM(E3:E46*I3:I46)</f>
-        <v>79.599999999999994</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="O11" s="14">
         <f t="array" ref="O11">SUM(F3:F46*I3:I46)</f>
-        <v>98.8</v>
+        <v>84.5</v>
       </c>
       <c r="P11" s="14">
         <f t="array" ref="P11">SUM(G3:G46*I3:I46)</f>
-        <v>53.7</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="14">
         <f t="array" ref="Q11">SUM(H3:H46*I3:I46)</f>
-        <v>47.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -7494,10 +7494,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -7781,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" s="14">
         <v>3</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I25" s="14">
         <v>1</v>
@@ -7813,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" s="14">
         <v>0</v>
       </c>
       <c r="H26" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I26" s="14">
         <v>1</v>
@@ -7926,13 +7926,13 @@
         <v>0</v>
       </c>
       <c r="E30" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H30" s="14">
         <v>0</v>
@@ -8045,16 +8045,16 @@
         <v>0</v>
       </c>
       <c r="F34" s="14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H34" s="14">
         <v>0</v>
       </c>
       <c r="I34" s="14">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -8074,10 +8074,10 @@
         <v>0</v>
       </c>
       <c r="F35" s="14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G35" s="14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H35" s="14">
         <v>0</v>
@@ -8335,16 +8335,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H44" s="14">
         <v>0</v>
       </c>
       <c r="I44" s="14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -8364,16 +8364,16 @@
         <v>0</v>
       </c>
       <c r="F45" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H45" s="14">
         <v>0</v>
       </c>
       <c r="I45" s="14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -8393,16 +8393,16 @@
         <v>0</v>
       </c>
       <c r="F46" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H46" s="14">
         <v>0</v>
       </c>
       <c r="I46" s="14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -8412,6 +8412,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8419,8 +8420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253E7184-E062-40F0-A428-AA79917B4B7E}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
@@ -8442,14 +8443,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
@@ -8723,15 +8724,15 @@
       </c>
       <c r="J12" s="15">
         <f>COUNTIFS(E:E,"杨枫",F:F, "=1")</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12" s="15">
         <f>COUNTIFS(E:E,"刘禹廷",F:F, "=1")</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L12" s="15">
         <f>COUNTIFS(E:E,"王政",F:F, "=1")</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M12" s="15">
         <f>COUNTIFS(E:E,"赵振宁",F:F, "=1")</f>
@@ -8775,7 +8776,7 @@
         <v>35</v>
       </c>
       <c r="F14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
@@ -8835,7 +8836,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -10995,7 +10996,7 @@
         <v>37</v>
       </c>
       <c r="F125" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
@@ -11015,7 +11016,7 @@
         <v>37</v>
       </c>
       <c r="F126" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
@@ -11035,7 +11036,7 @@
         <v>39</v>
       </c>
       <c r="F127" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
@@ -11055,7 +11056,7 @@
         <v>36</v>
       </c>
       <c r="F128" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
@@ -11075,7 +11076,7 @@
         <v>36</v>
       </c>
       <c r="F129" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
@@ -11095,7 +11096,7 @@
         <v>39</v>
       </c>
       <c r="F130" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
@@ -11115,7 +11116,7 @@
         <v>36</v>
       </c>
       <c r="F131" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
@@ -11135,7 +11136,7 @@
         <v>36</v>
       </c>
       <c r="F132" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
@@ -11175,7 +11176,7 @@
         <v>35</v>
       </c>
       <c r="F134" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
@@ -11315,7 +11316,7 @@
         <v>35</v>
       </c>
       <c r="F141" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
@@ -11375,7 +11376,7 @@
         <v>35</v>
       </c>
       <c r="F144" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
@@ -11455,7 +11456,7 @@
         <v>35</v>
       </c>
       <c r="F148" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
@@ -11515,7 +11516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949143DB-CAF6-450C-9F5A-9FA2FAF2207A}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -11529,13 +11530,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -11622,94 +11623,94 @@
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
